--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Unc5a</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.839677666666667</v>
+        <v>1.497392666666667</v>
       </c>
       <c r="H2">
-        <v>5.519032999999999</v>
+        <v>4.492178</v>
       </c>
       <c r="I2">
-        <v>0.09177420527696697</v>
+        <v>0.07263102411830044</v>
       </c>
       <c r="J2">
-        <v>0.09177420527696695</v>
+        <v>0.07263102411830046</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.094639333333333</v>
+        <v>0.8725483333333334</v>
       </c>
       <c r="N2">
-        <v>3.283918</v>
+        <v>2.617645</v>
       </c>
       <c r="O2">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="P2">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="Q2">
-        <v>2.013783534588222</v>
+        <v>1.306547475645556</v>
       </c>
       <c r="R2">
-        <v>18.124051811294</v>
+        <v>11.75892728081</v>
       </c>
       <c r="S2">
-        <v>0.01598304663990408</v>
+        <v>0.01098384230226694</v>
       </c>
       <c r="T2">
-        <v>0.01598304663990407</v>
+        <v>0.01098384230226694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.839677666666667</v>
+        <v>1.497392666666667</v>
       </c>
       <c r="H3">
-        <v>5.519032999999999</v>
+        <v>4.492178</v>
       </c>
       <c r="I3">
-        <v>0.09177420527696697</v>
+        <v>0.07263102411830044</v>
       </c>
       <c r="J3">
-        <v>0.09177420527696695</v>
+        <v>0.07263102411830046</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.085294</v>
       </c>
       <c r="O3">
-        <v>0.2696886668100327</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="P3">
-        <v>0.2696886668100326</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="Q3">
-        <v>3.118433933411333</v>
+        <v>2.538227314481333</v>
       </c>
       <c r="R3">
-        <v>28.065905400702</v>
+        <v>22.844045830332</v>
       </c>
       <c r="S3">
-        <v>0.02475046306869549</v>
+        <v>0.0213382897056951</v>
       </c>
       <c r="T3">
-        <v>0.02475046306869548</v>
+        <v>0.02133828970569511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.839677666666667</v>
+        <v>1.497392666666667</v>
       </c>
       <c r="H4">
-        <v>5.519032999999999</v>
+        <v>4.492178</v>
       </c>
       <c r="I4">
-        <v>0.09177420527696697</v>
+        <v>0.07263102411830044</v>
       </c>
       <c r="J4">
-        <v>0.09177420527696695</v>
+        <v>0.07263102411830046</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.596920666666667</v>
+        <v>1.019236</v>
       </c>
       <c r="N4">
-        <v>4.790762</v>
+        <v>3.057708</v>
       </c>
       <c r="O4">
-        <v>0.2540687356098125</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="P4">
-        <v>0.2540687356098124</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="Q4">
-        <v>2.937819285905111</v>
+        <v>1.526196512002667</v>
       </c>
       <c r="R4">
-        <v>26.440373573146</v>
+        <v>13.735768608024</v>
       </c>
       <c r="S4">
-        <v>0.02331695629631438</v>
+        <v>0.01283038092574816</v>
       </c>
       <c r="T4">
-        <v>0.02331695629631437</v>
+        <v>0.01283038092574816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.839677666666667</v>
+        <v>1.497392666666667</v>
       </c>
       <c r="H5">
-        <v>5.519032999999999</v>
+        <v>4.492178</v>
       </c>
       <c r="I5">
-        <v>0.09177420527696697</v>
+        <v>0.07263102411830044</v>
       </c>
       <c r="J5">
-        <v>0.09177420527696695</v>
+        <v>0.07263102411830046</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9574039999999999</v>
+        <v>1.318982333333333</v>
       </c>
       <c r="N5">
-        <v>2.872212</v>
+        <v>3.956947</v>
       </c>
       <c r="O5">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="P5">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="Q5">
-        <v>1.761314756777333</v>
+        <v>1.975034473396222</v>
       </c>
       <c r="R5">
-        <v>15.851832810996</v>
+        <v>17.775310260566</v>
       </c>
       <c r="S5">
-        <v>0.01397924624052493</v>
+        <v>0.01660365780937761</v>
       </c>
       <c r="T5">
-        <v>0.01397924624052493</v>
+        <v>0.01660365780937761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.839677666666667</v>
+        <v>1.497392666666667</v>
       </c>
       <c r="H6">
-        <v>5.519032999999999</v>
+        <v>4.492178</v>
       </c>
       <c r="I6">
-        <v>0.09177420527696697</v>
+        <v>0.07263102411830044</v>
       </c>
       <c r="J6">
-        <v>0.09177420527696695</v>
+        <v>0.07263102411830046</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9413263333333334</v>
+        <v>0.8638903333333333</v>
       </c>
       <c r="N6">
-        <v>2.823979</v>
+        <v>2.591671</v>
       </c>
       <c r="O6">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826473</v>
       </c>
       <c r="P6">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826472</v>
       </c>
       <c r="Q6">
-        <v>1.731737032478555</v>
+        <v>1.293583049937556</v>
       </c>
       <c r="R6">
-        <v>15.585633292307</v>
+        <v>11.642247449438</v>
       </c>
       <c r="S6">
-        <v>0.0137444930315281</v>
+        <v>0.01087485337521263</v>
       </c>
       <c r="T6">
-        <v>0.01374449303152809</v>
+        <v>0.01087485337521263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>22.314673</v>
       </c>
       <c r="I7">
-        <v>0.3710634418367117</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="J7">
-        <v>0.3710634418367116</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.094639333333333</v>
+        <v>0.8725483333333334</v>
       </c>
       <c r="N7">
-        <v>3.283918</v>
+        <v>2.617645</v>
       </c>
       <c r="O7">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="P7">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="Q7">
-        <v>8.142172925423777</v>
+        <v>6.490210245009445</v>
       </c>
       <c r="R7">
-        <v>73.279556328814</v>
+        <v>58.411892205085</v>
       </c>
       <c r="S7">
-        <v>0.06462299814355309</v>
+        <v>0.05456169574283432</v>
       </c>
       <c r="T7">
-        <v>0.06462299814355306</v>
+        <v>0.0545616957428343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>22.314673</v>
       </c>
       <c r="I8">
-        <v>0.3710634418367117</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="J8">
-        <v>0.3710634418367116</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>5.085294</v>
       </c>
       <c r="O8">
-        <v>0.2696886668100327</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="P8">
-        <v>0.2696886668100326</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="Q8">
         <v>12.60851919098467</v>
@@ -948,10 +948,10 @@
         <v>113.476672718862</v>
       </c>
       <c r="S8">
-        <v>0.1000716049308849</v>
+        <v>0.1059969033199157</v>
       </c>
       <c r="T8">
-        <v>0.1000716049308848</v>
+        <v>0.1059969033199157</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>22.314673</v>
       </c>
       <c r="I9">
-        <v>0.3710634418367117</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="J9">
-        <v>0.3710634418367116</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.596920666666667</v>
+        <v>1.019236</v>
       </c>
       <c r="N9">
-        <v>4.790762</v>
+        <v>3.057708</v>
       </c>
       <c r="O9">
-        <v>0.2540687356098125</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="P9">
-        <v>0.2540687356098124</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="Q9">
-        <v>11.87825416120289</v>
+        <v>7.581306016609333</v>
       </c>
       <c r="R9">
-        <v>106.904287450826</v>
+        <v>68.23175414948399</v>
       </c>
       <c r="S9">
-        <v>0.09427561949847856</v>
+        <v>0.06373428542313049</v>
       </c>
       <c r="T9">
-        <v>0.0942756194984785</v>
+        <v>0.06373428542313049</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>22.314673</v>
       </c>
       <c r="I10">
-        <v>0.3710634418367117</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="J10">
-        <v>0.3710634418367116</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9574039999999999</v>
+        <v>1.318982333333333</v>
       </c>
       <c r="N10">
-        <v>2.872212</v>
+        <v>3.956947</v>
       </c>
       <c r="O10">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="P10">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="Q10">
-        <v>7.121385729630666</v>
+        <v>9.810886487036777</v>
       </c>
       <c r="R10">
-        <v>64.092471566676</v>
+        <v>88.29797838333099</v>
       </c>
       <c r="S10">
-        <v>0.05652118924525243</v>
+        <v>0.0824778525294763</v>
       </c>
       <c r="T10">
-        <v>0.05652118924525242</v>
+        <v>0.08247785252947629</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>22.314673</v>
       </c>
       <c r="I11">
-        <v>0.3710634418367117</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="J11">
-        <v>0.3710634418367116</v>
+        <v>0.3607910356301526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9413263333333334</v>
+        <v>0.8638903333333333</v>
       </c>
       <c r="N11">
-        <v>2.823979</v>
+        <v>2.591671</v>
       </c>
       <c r="O11">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826473</v>
       </c>
       <c r="P11">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826472</v>
       </c>
       <c r="Q11">
-        <v>7.001796438207445</v>
+        <v>6.425810098731445</v>
       </c>
       <c r="R11">
-        <v>63.016167943867</v>
+        <v>57.832290888583</v>
       </c>
       <c r="S11">
-        <v>0.05557203001854277</v>
+        <v>0.0540202986147958</v>
       </c>
       <c r="T11">
-        <v>0.05557203001854274</v>
+        <v>0.05402029861479579</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>10.73940533333333</v>
+        <v>0.1679733333333333</v>
       </c>
       <c r="H12">
-        <v>32.218216</v>
+        <v>0.5039199999999999</v>
       </c>
       <c r="I12">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="J12">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.094639333333333</v>
+        <v>0.8725483333333334</v>
       </c>
       <c r="N12">
-        <v>3.283918</v>
+        <v>2.617645</v>
       </c>
       <c r="O12">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="P12">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="Q12">
-        <v>11.75577549447644</v>
+        <v>0.1465648520444444</v>
       </c>
       <c r="R12">
-        <v>105.801979450288</v>
+        <v>1.3190836684</v>
       </c>
       <c r="S12">
-        <v>0.09330352780686467</v>
+        <v>0.001232136797107852</v>
       </c>
       <c r="T12">
-        <v>0.09330352780686463</v>
+        <v>0.001232136797107852</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>10.73940533333333</v>
+        <v>0.1679733333333333</v>
       </c>
       <c r="H13">
-        <v>32.218216</v>
+        <v>0.5039199999999999</v>
       </c>
       <c r="I13">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="J13">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.085294</v>
       </c>
       <c r="O13">
-        <v>0.2696886668100327</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="P13">
-        <v>0.2696886668100326</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="Q13">
-        <v>18.20434450172267</v>
+        <v>0.2847312613866666</v>
       </c>
       <c r="R13">
-        <v>163.839100515504</v>
+        <v>2.56258135248</v>
       </c>
       <c r="S13">
-        <v>0.1444846887574787</v>
+        <v>0.002393669829756051</v>
       </c>
       <c r="T13">
-        <v>0.1444846887574787</v>
+        <v>0.002393669829756051</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>10.73940533333333</v>
+        <v>0.1679733333333333</v>
       </c>
       <c r="H14">
-        <v>32.218216</v>
+        <v>0.5039199999999999</v>
       </c>
       <c r="I14">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="J14">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.596920666666667</v>
+        <v>1.019236</v>
       </c>
       <c r="N14">
-        <v>4.790762</v>
+        <v>3.057708</v>
       </c>
       <c r="O14">
-        <v>0.2540687356098125</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="P14">
-        <v>0.2540687356098124</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="Q14">
-        <v>17.14997832451022</v>
+        <v>0.1712044683733333</v>
       </c>
       <c r="R14">
-        <v>154.349804920592</v>
+        <v>1.54084021536</v>
       </c>
       <c r="S14">
-        <v>0.1361163693743481</v>
+        <v>0.001439276350158656</v>
       </c>
       <c r="T14">
-        <v>0.1361163693743481</v>
+        <v>0.001439276350158656</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>10.73940533333333</v>
+        <v>0.1679733333333333</v>
       </c>
       <c r="H15">
-        <v>32.218216</v>
+        <v>0.5039199999999999</v>
       </c>
       <c r="I15">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="J15">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9574039999999999</v>
+        <v>1.318982333333333</v>
       </c>
       <c r="N15">
-        <v>2.872212</v>
+        <v>3.956947</v>
       </c>
       <c r="O15">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="P15">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="Q15">
-        <v>10.28194962375466</v>
+        <v>0.2215538591377777</v>
       </c>
       <c r="R15">
-        <v>92.53754661379199</v>
+        <v>1.99398473224</v>
       </c>
       <c r="S15">
-        <v>0.08160603042134741</v>
+        <v>0.001862552027836289</v>
       </c>
       <c r="T15">
-        <v>0.0816060304213474</v>
+        <v>0.001862552027836289</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>10.73940533333333</v>
+        <v>0.1679733333333333</v>
       </c>
       <c r="H16">
-        <v>32.218216</v>
+        <v>0.5039199999999999</v>
       </c>
       <c r="I16">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="J16">
-        <v>0.5357462383069029</v>
+        <v>0.008147545728084229</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9413263333333334</v>
+        <v>0.8638903333333333</v>
       </c>
       <c r="N16">
-        <v>2.823979</v>
+        <v>2.591671</v>
       </c>
       <c r="O16">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826473</v>
       </c>
       <c r="P16">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826472</v>
       </c>
       <c r="Q16">
-        <v>10.10928504460711</v>
+        <v>0.1451105389244444</v>
       </c>
       <c r="R16">
-        <v>90.98356540146399</v>
+        <v>1.30599485032</v>
       </c>
       <c r="S16">
-        <v>0.08023562194686405</v>
+        <v>0.001219910723225382</v>
       </c>
       <c r="T16">
-        <v>0.08023562194686402</v>
+        <v>0.001219910723225381</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.028387</v>
+        <v>11.470741</v>
       </c>
       <c r="H17">
-        <v>0.085161</v>
+        <v>34.412223</v>
       </c>
       <c r="I17">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
       </c>
       <c r="J17">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.094639333333333</v>
+        <v>0.8725483333333334</v>
       </c>
       <c r="N17">
-        <v>3.283918</v>
+        <v>2.617645</v>
       </c>
       <c r="O17">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="P17">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="Q17">
-        <v>0.03107352675533333</v>
+        <v>10.00877594164833</v>
       </c>
       <c r="R17">
-        <v>0.279661740798</v>
+        <v>90.078983474835</v>
       </c>
       <c r="S17">
-        <v>0.0002466251306888128</v>
+        <v>0.08414146338422997</v>
       </c>
       <c r="T17">
-        <v>0.0002466251306888128</v>
+        <v>0.08414146338422995</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.028387</v>
+        <v>11.470741</v>
       </c>
       <c r="H18">
-        <v>0.085161</v>
+        <v>34.412223</v>
       </c>
       <c r="I18">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
       </c>
       <c r="J18">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.085294</v>
       </c>
       <c r="O18">
-        <v>0.2696886668100327</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="P18">
-        <v>0.2696886668100326</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="Q18">
-        <v>0.048118746926</v>
+        <v>19.444030127618</v>
       </c>
       <c r="R18">
-        <v>0.433068722334</v>
+        <v>174.996271148562</v>
       </c>
       <c r="S18">
-        <v>0.0003819100529736236</v>
+        <v>0.1634614620771893</v>
       </c>
       <c r="T18">
-        <v>0.0003819100529736234</v>
+        <v>0.1634614620771893</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.028387</v>
+        <v>11.470741</v>
       </c>
       <c r="H19">
-        <v>0.085161</v>
+        <v>34.412223</v>
       </c>
       <c r="I19">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
       </c>
       <c r="J19">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.596920666666667</v>
+        <v>1.019236</v>
       </c>
       <c r="N19">
-        <v>4.790762</v>
+        <v>3.057708</v>
       </c>
       <c r="O19">
-        <v>0.2540687356098125</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="P19">
-        <v>0.2540687356098124</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="Q19">
-        <v>0.04533178696466666</v>
+        <v>11.691392173876</v>
       </c>
       <c r="R19">
-        <v>0.407986082682</v>
+        <v>105.222529564884</v>
       </c>
       <c r="S19">
-        <v>0.000359790440671478</v>
+        <v>0.09828682870353582</v>
       </c>
       <c r="T19">
-        <v>0.0003597904406714778</v>
+        <v>0.09828682870353581</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.028387</v>
+        <v>11.470741</v>
       </c>
       <c r="H20">
-        <v>0.085161</v>
+        <v>34.412223</v>
       </c>
       <c r="I20">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
       </c>
       <c r="J20">
-        <v>0.001416114579418493</v>
+        <v>0.5563882372152958</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9574039999999999</v>
+        <v>1.318982333333333</v>
       </c>
       <c r="N20">
-        <v>2.872212</v>
+        <v>3.956947</v>
       </c>
       <c r="O20">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="P20">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="Q20">
-        <v>0.027177827348</v>
+        <v>15.12970472924233</v>
       </c>
       <c r="R20">
-        <v>0.244600446132</v>
+        <v>136.167342563181</v>
       </c>
       <c r="S20">
-        <v>0.0002157056479077664</v>
+        <v>0.1271919267562403</v>
       </c>
       <c r="T20">
-        <v>0.0002157056479077664</v>
+        <v>0.1271919267562402</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>11.470741</v>
+      </c>
+      <c r="H21">
+        <v>34.412223</v>
+      </c>
+      <c r="I21">
+        <v>0.5563882372152958</v>
+      </c>
+      <c r="J21">
+        <v>0.5563882372152958</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.8638903333333333</v>
+      </c>
+      <c r="N21">
+        <v>2.591671</v>
+      </c>
+      <c r="O21">
+        <v>0.1497273858826473</v>
+      </c>
+      <c r="P21">
+        <v>0.1497273858826472</v>
+      </c>
+      <c r="Q21">
+        <v>9.909462266070332</v>
+      </c>
+      <c r="R21">
+        <v>89.18516039463299</v>
+      </c>
+      <c r="S21">
+        <v>0.08330655629410048</v>
+      </c>
+      <c r="T21">
+        <v>0.08330655629410046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.042102</v>
+      </c>
+      <c r="H22">
+        <v>0.126306</v>
+      </c>
+      <c r="I22">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="J22">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.8725483333333334</v>
+      </c>
+      <c r="N22">
+        <v>2.617645</v>
+      </c>
+      <c r="O22">
+        <v>0.1512279695296132</v>
+      </c>
+      <c r="P22">
+        <v>0.1512279695296132</v>
+      </c>
+      <c r="Q22">
+        <v>0.03673602993</v>
+      </c>
+      <c r="R22">
+        <v>0.33062426937</v>
+      </c>
+      <c r="S22">
+        <v>0.0003088313031741236</v>
+      </c>
+      <c r="T22">
+        <v>0.0003088313031741236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.042102</v>
+      </c>
+      <c r="H23">
+        <v>0.126306</v>
+      </c>
+      <c r="I23">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="J23">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.695098</v>
+      </c>
+      <c r="N23">
+        <v>5.085294</v>
+      </c>
+      <c r="O23">
+        <v>0.2937902909222315</v>
+      </c>
+      <c r="P23">
+        <v>0.2937902909222315</v>
+      </c>
+      <c r="Q23">
+        <v>0.071367015996</v>
+      </c>
+      <c r="R23">
+        <v>0.642303143964</v>
+      </c>
+      <c r="S23">
+        <v>0.0005999659896752813</v>
+      </c>
+      <c r="T23">
+        <v>0.0005999659896752813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.042102</v>
+      </c>
+      <c r="H24">
+        <v>0.126306</v>
+      </c>
+      <c r="I24">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="J24">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.019236</v>
+      </c>
+      <c r="N24">
+        <v>3.057708</v>
+      </c>
+      <c r="O24">
+        <v>0.1766515215984041</v>
+      </c>
+      <c r="P24">
+        <v>0.1766515215984041</v>
+      </c>
+      <c r="Q24">
+        <v>0.042911874072</v>
+      </c>
+      <c r="R24">
+        <v>0.386206866648</v>
+      </c>
+      <c r="S24">
+        <v>0.0003607501958309638</v>
+      </c>
+      <c r="T24">
+        <v>0.0003607501958309638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.028387</v>
-      </c>
-      <c r="H21">
-        <v>0.085161</v>
-      </c>
-      <c r="I21">
-        <v>0.001416114579418493</v>
-      </c>
-      <c r="J21">
-        <v>0.001416114579418493</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.9413263333333334</v>
-      </c>
-      <c r="N21">
-        <v>2.823979</v>
-      </c>
-      <c r="O21">
-        <v>0.1497642283041117</v>
-      </c>
-      <c r="P21">
-        <v>0.1497642283041117</v>
-      </c>
-      <c r="Q21">
-        <v>0.02672143062433333</v>
-      </c>
-      <c r="R21">
-        <v>0.240492875619</v>
-      </c>
-      <c r="S21">
-        <v>0.0002120833071768123</v>
-      </c>
-      <c r="T21">
-        <v>0.0002120833071768122</v>
+      <c r="G25">
+        <v>0.042102</v>
+      </c>
+      <c r="H25">
+        <v>0.126306</v>
+      </c>
+      <c r="I25">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="J25">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.318982333333333</v>
+      </c>
+      <c r="N25">
+        <v>3.956947</v>
+      </c>
+      <c r="O25">
+        <v>0.2286028320671039</v>
+      </c>
+      <c r="P25">
+        <v>0.2286028320671039</v>
+      </c>
+      <c r="Q25">
+        <v>0.055531794198</v>
+      </c>
+      <c r="R25">
+        <v>0.4997861477819999</v>
+      </c>
+      <c r="S25">
+        <v>0.0004668429441734609</v>
+      </c>
+      <c r="T25">
+        <v>0.0004668429441734608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.042102</v>
+      </c>
+      <c r="H26">
+        <v>0.126306</v>
+      </c>
+      <c r="I26">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="J26">
+        <v>0.002042157308166786</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.8638903333333333</v>
+      </c>
+      <c r="N26">
+        <v>2.591671</v>
+      </c>
+      <c r="O26">
+        <v>0.1497273858826473</v>
+      </c>
+      <c r="P26">
+        <v>0.1497273858826472</v>
+      </c>
+      <c r="Q26">
+        <v>0.036371510814</v>
+      </c>
+      <c r="R26">
+        <v>0.327343597326</v>
+      </c>
+      <c r="S26">
+        <v>0.0003057668753129566</v>
+      </c>
+      <c r="T26">
+        <v>0.0003057668753129565</v>
       </c>
     </row>
   </sheetData>
